--- a/data/pca/factorExposure/factorExposure_2019-02-07.xlsx
+++ b/data/pca/factorExposure/factorExposure_2019-02-07.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,15 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +704,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,70 +726,106 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>0.1100323655970429</v>
+        <v>-0.06706737230168693</v>
       </c>
       <c r="C2">
-        <v>0.02057691333839122</v>
+        <v>0.03418686945060804</v>
       </c>
       <c r="D2">
-        <v>0.04134654671015192</v>
+        <v>0.01805946862153005</v>
       </c>
       <c r="E2">
-        <v>0.1001167895997631</v>
+        <v>0.03995882277160136</v>
       </c>
       <c r="F2">
-        <v>0.1099845844575924</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>-0.1386341242030039</v>
+      </c>
+      <c r="G2">
+        <v>0.06346790132949284</v>
+      </c>
+      <c r="H2">
+        <v>-0.0411856369054014</v>
+      </c>
+      <c r="I2">
+        <v>-0.0661509061973324</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>0.2157904138934542</v>
+        <v>-0.1595715250677191</v>
       </c>
       <c r="C3">
-        <v>0.1461176255182328</v>
+        <v>0.102778619875478</v>
       </c>
       <c r="D3">
-        <v>-0.05432350888459822</v>
+        <v>-0.00539872252411976</v>
       </c>
       <c r="E3">
-        <v>0.1534544893968768</v>
+        <v>-0.002176827215944609</v>
       </c>
       <c r="F3">
-        <v>0.3215286874585873</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>-0.3767154943418612</v>
+      </c>
+      <c r="G3">
+        <v>0.2381168883597173</v>
+      </c>
+      <c r="H3">
+        <v>-0.03283508079106278</v>
+      </c>
+      <c r="I3">
+        <v>-0.3208407805204576</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>0.0950596959105815</v>
+        <v>-0.07193694640506428</v>
       </c>
       <c r="C4">
-        <v>0.04957856637789417</v>
+        <v>0.0478782809912679</v>
       </c>
       <c r="D4">
-        <v>0.02836458706588123</v>
+        <v>-0.01536451959000347</v>
       </c>
       <c r="E4">
-        <v>0.02937740552851073</v>
+        <v>0.04157763184721187</v>
       </c>
       <c r="F4">
-        <v>0.07186715450044023</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>-0.08017175877550979</v>
+      </c>
+      <c r="G4">
+        <v>0.02863360722081023</v>
+      </c>
+      <c r="H4">
+        <v>-0.03958345033970022</v>
+      </c>
+      <c r="I4">
+        <v>-0.04066978891693345</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,190 +842,280 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>-0.0205702152309014</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>0.01101444683424427</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>-0.005041807172568698</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.00447579682875973</v>
       </c>
       <c r="F6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>-0.006850590662446533</v>
+      </c>
+      <c r="G6">
+        <v>-0.006399058730934495</v>
+      </c>
+      <c r="H6">
+        <v>0.01791044823314347</v>
+      </c>
+      <c r="I6">
+        <v>0.01490073002822948</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>0.04350593250088983</v>
+        <v>-0.03516494952866474</v>
       </c>
       <c r="C7">
-        <v>0.02076381953634386</v>
+        <v>0.01745200601585529</v>
       </c>
       <c r="D7">
-        <v>0.02962040422842714</v>
+        <v>-0.03620520890787624</v>
       </c>
       <c r="E7">
-        <v>0.06335477972657846</v>
+        <v>0.02991746988004115</v>
       </c>
       <c r="F7">
-        <v>0.0377385884895263</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>-0.05454628586646094</v>
+      </c>
+      <c r="G7">
+        <v>0.05012566699416836</v>
+      </c>
+      <c r="H7">
+        <v>0.004604224858390252</v>
+      </c>
+      <c r="I7">
+        <v>-0.006761664953562715</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>0.04661902433086466</v>
+        <v>-0.02824128028023895</v>
       </c>
       <c r="C8">
-        <v>0.05542041594237086</v>
+        <v>0.04975839298651056</v>
       </c>
       <c r="D8">
-        <v>0.006469052509734654</v>
+        <v>-0.01282825659863475</v>
       </c>
       <c r="E8">
-        <v>0.02071013641222588</v>
+        <v>0.02196956443632374</v>
       </c>
       <c r="F8">
-        <v>0.07011058211004216</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>-0.07330284815978876</v>
+      </c>
+      <c r="G8">
+        <v>0.04381342693353526</v>
+      </c>
+      <c r="H8">
+        <v>-0.03294965236339936</v>
+      </c>
+      <c r="I8">
+        <v>-0.04833794192096665</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>0.0812827222341625</v>
+        <v>-0.06081806918982242</v>
       </c>
       <c r="C9">
-        <v>0.04221521798741697</v>
+        <v>0.04302901766013575</v>
       </c>
       <c r="D9">
-        <v>0.03704140137425774</v>
+        <v>-0.01927336845281338</v>
       </c>
       <c r="E9">
-        <v>0.009744077666861348</v>
+        <v>0.03611943851490595</v>
       </c>
       <c r="F9">
-        <v>0.07026094534875643</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>-0.08070742997417965</v>
+      </c>
+      <c r="G9">
+        <v>0.02907828531174035</v>
+      </c>
+      <c r="H9">
+        <v>-0.03859017416530407</v>
+      </c>
+      <c r="I9">
+        <v>-0.01721159448099427</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>0.02344520757137245</v>
+        <v>-0.03705488649462371</v>
       </c>
       <c r="C10">
-        <v>-0.1655014393487905</v>
+        <v>-0.1611516130341915</v>
       </c>
       <c r="D10">
-        <v>-0.01951459535577325</v>
+        <v>0.01257269687846889</v>
       </c>
       <c r="E10">
-        <v>0.06207091050710955</v>
+        <v>-0.03789560734151684</v>
       </c>
       <c r="F10">
-        <v>0.03532368684304515</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>-0.06538061894846955</v>
+      </c>
+      <c r="G10">
+        <v>0.003633493156496426</v>
+      </c>
+      <c r="H10">
+        <v>-0.03022663659352895</v>
+      </c>
+      <c r="I10">
+        <v>-0.1004964796992612</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>0.05812350429955687</v>
+        <v>-0.04899384563616133</v>
       </c>
       <c r="C11">
-        <v>0.01511140124686107</v>
+        <v>0.03197312151891626</v>
       </c>
       <c r="D11">
-        <v>-0.004278668331552804</v>
+        <v>0.005495950542475139</v>
       </c>
       <c r="E11">
-        <v>0.03303580847787589</v>
+        <v>0.01069515939286967</v>
       </c>
       <c r="F11">
-        <v>0.03176794180808157</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>-0.0389255844727916</v>
+      </c>
+      <c r="G11">
+        <v>0.003686726764826074</v>
+      </c>
+      <c r="H11">
+        <v>-0.01411731221101722</v>
+      </c>
+      <c r="I11">
+        <v>0.003846996583801239</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>0.04504710061466625</v>
+        <v>-0.04454580441941799</v>
       </c>
       <c r="C12">
-        <v>0.01826222170930438</v>
+        <v>0.02891884288860277</v>
       </c>
       <c r="D12">
-        <v>-0.002164229987664896</v>
+        <v>-0.005707104028572098</v>
       </c>
       <c r="E12">
-        <v>0.01102502734990398</v>
+        <v>0.01187476059836123</v>
       </c>
       <c r="F12">
-        <v>0.02691351533560177</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>-0.01499617154580765</v>
+      </c>
+      <c r="G12">
+        <v>0.006074654028017878</v>
+      </c>
+      <c r="H12">
+        <v>-0.002625969273046291</v>
+      </c>
+      <c r="I12">
+        <v>0.004020623267939177</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>0.06244432067672078</v>
+        <v>-0.0434731233158356</v>
       </c>
       <c r="C13">
-        <v>0.0317304140919943</v>
+        <v>0.02634994955876652</v>
       </c>
       <c r="D13">
-        <v>-0.005519512351472691</v>
+        <v>0.01506811904478684</v>
       </c>
       <c r="E13">
-        <v>0.07413851637408392</v>
+        <v>0.009458280282236721</v>
       </c>
       <c r="F13">
-        <v>0.08592875506290003</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>-0.1042078554809739</v>
+      </c>
+      <c r="G13">
+        <v>0.04111271890932707</v>
+      </c>
+      <c r="H13">
+        <v>-0.02078169310380911</v>
+      </c>
+      <c r="I13">
+        <v>-0.03046334328930887</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>0.0331608795853939</v>
+        <v>-0.02703660826852039</v>
       </c>
       <c r="C14">
-        <v>0.02675606879704221</v>
+        <v>0.02052402572513738</v>
       </c>
       <c r="D14">
-        <v>0.02686837399437248</v>
+        <v>-0.006435093405044665</v>
       </c>
       <c r="E14">
-        <v>0.031975231115935</v>
+        <v>0.02790216575325485</v>
       </c>
       <c r="F14">
-        <v>0.01554773484296808</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>-0.0378873553886762</v>
+      </c>
+      <c r="G14">
+        <v>0.05977651862338056</v>
+      </c>
+      <c r="H14">
+        <v>-0.01133872783681239</v>
+      </c>
+      <c r="I14">
+        <v>-0.01304373212691856</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -997,30 +1132,48 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>0.04779370060369167</v>
+        <v>-0.04223545763110765</v>
       </c>
       <c r="C16">
-        <v>0.02400664459257351</v>
+        <v>0.0363105236962722</v>
       </c>
       <c r="D16">
-        <v>-0.00756087426257455</v>
+        <v>1.052081125447257e-06</v>
       </c>
       <c r="E16">
-        <v>0.0214450941902173</v>
+        <v>0.009716269585472052</v>
       </c>
       <c r="F16">
-        <v>0.02819389860763254</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>-0.03523885902198971</v>
+      </c>
+      <c r="G16">
+        <v>0.005240915751201386</v>
+      </c>
+      <c r="H16">
+        <v>-0.002843829621273854</v>
+      </c>
+      <c r="I16">
+        <v>-0.003084661944394139</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1190,19 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,70 +1219,106 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B19">
-        <v>0.05438250952011003</v>
+        <v>-0.05069913497424651</v>
       </c>
       <c r="C19">
-        <v>0.05226578824748799</v>
+        <v>0.0448033660216846</v>
       </c>
       <c r="D19">
-        <v>-0.003466004123935524</v>
+        <v>0.002288185947236216</v>
       </c>
       <c r="E19">
-        <v>0.06025675578616487</v>
+        <v>0.02363190225888167</v>
       </c>
       <c r="F19">
-        <v>0.06501098748934646</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>-0.08972173735901971</v>
+      </c>
+      <c r="G19">
+        <v>0.06145404777603671</v>
+      </c>
+      <c r="H19">
+        <v>-0.00457471820426672</v>
+      </c>
+      <c r="I19">
+        <v>-0.05338468924560726</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>0.03680106690690722</v>
+        <v>-0.01872790023804313</v>
       </c>
       <c r="C20">
-        <v>0.04150182943906023</v>
+        <v>0.02900258950800958</v>
       </c>
       <c r="D20">
-        <v>0.01412466845517327</v>
+        <v>-0.006419693654345107</v>
       </c>
       <c r="E20">
-        <v>0.03439962365661926</v>
+        <v>0.02240830590890557</v>
       </c>
       <c r="F20">
-        <v>0.0608701430199772</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>-0.06569487215556336</v>
+      </c>
+      <c r="G20">
+        <v>0.0626964946297906</v>
+      </c>
+      <c r="H20">
+        <v>-0.0009227091422444713</v>
+      </c>
+      <c r="I20">
+        <v>-0.04963043426323794</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>0.03381131130232846</v>
+        <v>-0.03188280215892984</v>
       </c>
       <c r="C21">
-        <v>0.03459566912214503</v>
+        <v>0.0297015217345134</v>
       </c>
       <c r="D21">
-        <v>0.006073375054964377</v>
+        <v>-0.01269437793216427</v>
       </c>
       <c r="E21">
-        <v>0.08177570388561191</v>
+        <v>0.008618960676385469</v>
       </c>
       <c r="F21">
-        <v>0.08225976940125664</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>-0.08295438263507181</v>
+      </c>
+      <c r="G21">
+        <v>0.03272765354358775</v>
+      </c>
+      <c r="H21">
+        <v>-0.04321314672312518</v>
+      </c>
+      <c r="I21">
+        <v>0.01468917942889356</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1137,10 +1335,19 @@
       <c r="F22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1157,230 +1364,338 @@
       <c r="F23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>0.05145617605636509</v>
+        <v>-0.04178079952332756</v>
       </c>
       <c r="C24">
-        <v>0.02135624228911087</v>
+        <v>0.02963582015366093</v>
       </c>
       <c r="D24">
-        <v>-0.00247379476891538</v>
+        <v>-0.0004886803007854068</v>
       </c>
       <c r="E24">
-        <v>0.02359612414997145</v>
+        <v>0.01175544329298061</v>
       </c>
       <c r="F24">
-        <v>0.03954049520453412</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>-0.03904169188421869</v>
+      </c>
+      <c r="G24">
+        <v>0.002586611414574429</v>
+      </c>
+      <c r="H24">
+        <v>-0.00518839521085032</v>
+      </c>
+      <c r="I24">
+        <v>0.002917067643239432</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>0.05170385073175544</v>
+        <v>-0.04800228707802823</v>
       </c>
       <c r="C25">
-        <v>0.01301787732200562</v>
+        <v>0.02641342965405198</v>
       </c>
       <c r="D25">
-        <v>-0.002016200002905284</v>
+        <v>0.0008990569602469304</v>
       </c>
       <c r="E25">
-        <v>0.02609561479449107</v>
+        <v>0.009811863443130935</v>
       </c>
       <c r="F25">
-        <v>0.03492559965790146</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>-0.04483502392887397</v>
+      </c>
+      <c r="G25">
+        <v>0.001861313967944395</v>
+      </c>
+      <c r="H25">
+        <v>-0.01246416086734411</v>
+      </c>
+      <c r="I25">
+        <v>0.008436097920573085</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>0.02096730703299789</v>
+        <v>-0.01757246344861146</v>
       </c>
       <c r="C26">
-        <v>0.03158530982062061</v>
+        <v>0.02604740771553666</v>
       </c>
       <c r="D26">
-        <v>0.005309748762953983</v>
+        <v>0.003749291613555071</v>
       </c>
       <c r="E26">
-        <v>0.04637069410069508</v>
+        <v>0.00221745857000578</v>
       </c>
       <c r="F26">
-        <v>0.01229974726111145</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>-0.04497830685616669</v>
+      </c>
+      <c r="G26">
+        <v>0.03969039978026805</v>
+      </c>
+      <c r="H26">
+        <v>-0.009587115202370657</v>
+      </c>
+      <c r="I26">
+        <v>2.732494278641112e-05</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B27">
-        <v>0.1178334688999502</v>
+        <v>-0.07184445205446184</v>
       </c>
       <c r="C27">
-        <v>0.03491568249352516</v>
+        <v>0.02820821687515845</v>
       </c>
       <c r="D27">
-        <v>0.01793813892019425</v>
+        <v>-0.00533389509663899</v>
       </c>
       <c r="E27">
-        <v>0.04061111375659437</v>
+        <v>0.03546695153572574</v>
       </c>
       <c r="F27">
-        <v>0.07977646666083771</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>-0.06636995639127102</v>
+      </c>
+      <c r="G27">
+        <v>0.01780396598551631</v>
+      </c>
+      <c r="H27">
+        <v>-0.02453946532980279</v>
+      </c>
+      <c r="I27">
+        <v>-0.0322509189285434</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>0.01978307852194694</v>
+        <v>-0.05400758414963031</v>
       </c>
       <c r="C28">
-        <v>-0.2497775270119147</v>
+        <v>-0.2425050513703599</v>
       </c>
       <c r="D28">
-        <v>-0.0240326378878864</v>
+        <v>0.008169038606413897</v>
       </c>
       <c r="E28">
-        <v>0.04296754877678002</v>
+        <v>-0.05565787688246477</v>
       </c>
       <c r="F28">
-        <v>0.01857365226385136</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>-0.0542747333761425</v>
+      </c>
+      <c r="G28">
+        <v>-0.0001277324819524761</v>
+      </c>
+      <c r="H28">
+        <v>-0.0339331069869736</v>
+      </c>
+      <c r="I28">
+        <v>-0.1557013992000054</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>0.02521997592911216</v>
+        <v>-0.02347053247786177</v>
       </c>
       <c r="C29">
-        <v>0.02645499422441574</v>
+        <v>0.01828945447909412</v>
       </c>
       <c r="D29">
-        <v>0.03146294090181114</v>
+        <v>-0.009823320091126655</v>
       </c>
       <c r="E29">
-        <v>0.02820059578180451</v>
+        <v>0.02933871862547964</v>
       </c>
       <c r="F29">
-        <v>0.02159870723566011</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>-0.0344455200794806</v>
+      </c>
+      <c r="G29">
+        <v>0.06024896208019062</v>
+      </c>
+      <c r="H29">
+        <v>-0.01674602478321807</v>
+      </c>
+      <c r="I29">
+        <v>-0.002934534197725379</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B30">
-        <v>0.1143666363759213</v>
+        <v>-0.09015758804065052</v>
       </c>
       <c r="C30">
-        <v>0.02539772082273923</v>
+        <v>0.05029018414608796</v>
       </c>
       <c r="D30">
-        <v>0.03143778308383594</v>
+        <v>0.03698471481470492</v>
       </c>
       <c r="E30">
-        <v>0.0687017412324608</v>
+        <v>0.0338844221483551</v>
       </c>
       <c r="F30">
-        <v>0.08596745616769148</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>-0.1038681149546075</v>
+      </c>
+      <c r="G30">
+        <v>0.02157835253484977</v>
+      </c>
+      <c r="H30">
+        <v>0.01334809726733525</v>
+      </c>
+      <c r="I30">
+        <v>0.007964746906171572</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B31">
-        <v>0.06755710193228846</v>
+        <v>-0.0607046997754014</v>
       </c>
       <c r="C31">
-        <v>0.02108899564863462</v>
+        <v>0.02171757318082953</v>
       </c>
       <c r="D31">
-        <v>0.01773276124694334</v>
+        <v>0.009747658796247644</v>
       </c>
       <c r="E31">
-        <v>0.03782384933003823</v>
+        <v>0.02507480912845602</v>
       </c>
       <c r="F31">
-        <v>-0.05651699616501706</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>0.0009222551830214722</v>
+      </c>
+      <c r="G31">
+        <v>0.04898262140210707</v>
+      </c>
+      <c r="H31">
+        <v>-0.02976095163878265</v>
+      </c>
+      <c r="I31">
+        <v>-0.01852327159962105</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B32">
-        <v>0.0684672921393101</v>
+        <v>-0.04183558054538345</v>
       </c>
       <c r="C32">
-        <v>0.04221042316029606</v>
+        <v>0.04496974747643017</v>
       </c>
       <c r="D32">
-        <v>0.02138794887141674</v>
+        <v>-0.01626505513644805</v>
       </c>
       <c r="E32">
-        <v>0.06054864857556466</v>
+        <v>0.03661087074737731</v>
       </c>
       <c r="F32">
-        <v>0.0818026281984261</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>-0.08698746307685429</v>
+      </c>
+      <c r="G32">
+        <v>0.04268829669231249</v>
+      </c>
+      <c r="H32">
+        <v>-0.02091387271674321</v>
+      </c>
+      <c r="I32">
+        <v>-0.03670983086852005</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B33">
-        <v>0.06665615198195533</v>
+        <v>-0.0562653679899616</v>
       </c>
       <c r="C33">
-        <v>0.05694688237221749</v>
+        <v>0.05346317972736279</v>
       </c>
       <c r="D33">
-        <v>0.01420783549259692</v>
+        <v>0.01796021350237053</v>
       </c>
       <c r="E33">
-        <v>0.06589262242825736</v>
+        <v>0.01657861765069995</v>
       </c>
       <c r="F33">
-        <v>0.04633944919896585</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>-0.07581796409068639</v>
+      </c>
+      <c r="G33">
+        <v>0.0465785830042925</v>
+      </c>
+      <c r="H33">
+        <v>-0.03415276064110419</v>
+      </c>
+      <c r="I33">
+        <v>-0.00231101246654964</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B34">
-        <v>0.05007918393952726</v>
+        <v>-0.04364350891522073</v>
       </c>
       <c r="C34">
-        <v>0.02135849204659854</v>
+        <v>0.03503827737953254</v>
       </c>
       <c r="D34">
-        <v>0.003168022361950177</v>
+        <v>-0.005269238093179703</v>
       </c>
       <c r="E34">
-        <v>0.01863273486304233</v>
+        <v>0.0192544109379388</v>
       </c>
       <c r="F34">
-        <v>0.02302543437739262</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>-0.03316650235104787</v>
+      </c>
+      <c r="G34">
+        <v>0.01012672693708831</v>
+      </c>
+      <c r="H34">
+        <v>-0.005733341512767553</v>
+      </c>
+      <c r="I34">
+        <v>5.152224697037105e-05</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1397,30 +1712,48 @@
       <c r="F35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B36">
-        <v>0.01493024255708578</v>
+        <v>-0.01593630006106522</v>
       </c>
       <c r="C36">
-        <v>0.004413582896033447</v>
+        <v>0.003474113261942463</v>
       </c>
       <c r="D36">
-        <v>0.01130312554424901</v>
+        <v>-0.004756642297633541</v>
       </c>
       <c r="E36">
-        <v>0.02327383048138596</v>
+        <v>0.01036321809515865</v>
       </c>
       <c r="F36">
-        <v>0.01008700920475987</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>-0.02592696298047876</v>
+      </c>
+      <c r="G36">
+        <v>0.0397499114968656</v>
+      </c>
+      <c r="H36">
+        <v>-0.01741581096026654</v>
+      </c>
+      <c r="I36">
+        <v>0.006331197959160412</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,150 +1770,222 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <v>0.04620632265222832</v>
+        <v>-0.0345061374565464</v>
       </c>
       <c r="C38">
-        <v>0.0260141661748899</v>
+        <v>0.01596078167380258</v>
       </c>
       <c r="D38">
-        <v>0.02154303650183538</v>
+        <v>-0.003702545697236412</v>
       </c>
       <c r="E38">
-        <v>0.009981307534769286</v>
+        <v>0.01301512751403287</v>
       </c>
       <c r="F38">
-        <v>0.02683776182983159</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>-0.04895484262227612</v>
+      </c>
+      <c r="G38">
+        <v>0.02521837787623095</v>
+      </c>
+      <c r="H38">
+        <v>-0.03106531612486065</v>
+      </c>
+      <c r="I38">
+        <v>0.01420921537150559</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B39">
-        <v>0.07085505710239347</v>
+        <v>-0.05315911988047964</v>
       </c>
       <c r="C39">
-        <v>0.02547007067629179</v>
+        <v>0.04545200217471149</v>
       </c>
       <c r="D39">
-        <v>0.005625214702170897</v>
+        <v>0.00406081879637661</v>
       </c>
       <c r="E39">
-        <v>0.03760740276288006</v>
+        <v>0.01855667691836153</v>
       </c>
       <c r="F39">
-        <v>0.02325706575737992</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>-0.05301836196856505</v>
+      </c>
+      <c r="G39">
+        <v>0.01021116566978859</v>
+      </c>
+      <c r="H39">
+        <v>-0.01899475002866872</v>
+      </c>
+      <c r="I39">
+        <v>0.02441190934465938</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>0.07798891691650769</v>
+        <v>-0.05467223890571814</v>
       </c>
       <c r="C40">
-        <v>0.04263527012478904</v>
+        <v>0.04286442803091858</v>
       </c>
       <c r="D40">
-        <v>0.008824977033340418</v>
+        <v>0.01930704983458476</v>
       </c>
       <c r="E40">
-        <v>0.05358460141213438</v>
+        <v>0.02590574398561463</v>
       </c>
       <c r="F40">
-        <v>0.1006776161247174</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>-0.09424509230366418</v>
+      </c>
+      <c r="G40">
+        <v>0.04733723810779851</v>
+      </c>
+      <c r="H40">
+        <v>-0.01897659421199196</v>
+      </c>
+      <c r="I40">
+        <v>-0.05160080918933334</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>0.004281587413149796</v>
+        <v>-0.003639742666193347</v>
       </c>
       <c r="C41">
-        <v>0.02871387654349866</v>
+        <v>0.0121110996692744</v>
       </c>
       <c r="D41">
-        <v>0.02987768166424719</v>
+        <v>-0.0003134749250891147</v>
       </c>
       <c r="E41">
-        <v>0.02612461824342048</v>
+        <v>0.01181208867606269</v>
       </c>
       <c r="F41">
-        <v>-0.006599162059445278</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>-0.01194434784656517</v>
+      </c>
+      <c r="G41">
+        <v>0.04188112423313516</v>
+      </c>
+      <c r="H41">
+        <v>-0.03274908518454785</v>
+      </c>
+      <c r="I41">
+        <v>-0.02678194237725935</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B42">
-        <v>0.1431008816223951</v>
+        <v>-0.2241813051804753</v>
       </c>
       <c r="C42">
-        <v>0.178892397483714</v>
+        <v>0.2785068918293719</v>
       </c>
       <c r="D42">
-        <v>-0.9365188899941636</v>
+        <v>0.05310636558240813</v>
       </c>
       <c r="E42">
-        <v>-0.01009185267165781</v>
+        <v>-0.9013449748383929</v>
       </c>
       <c r="F42">
-        <v>-0.1090318665118034</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>0.1587278071802923</v>
+      </c>
+      <c r="G42">
+        <v>-0.01017903779261577</v>
+      </c>
+      <c r="H42">
+        <v>0.001501327428834826</v>
+      </c>
+      <c r="I42">
+        <v>-0.06364754135129334</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B43">
-        <v>0.006019229958561615</v>
+        <v>-0.008265587038412802</v>
       </c>
       <c r="C43">
-        <v>0.02972418396895544</v>
+        <v>0.01348317463104488</v>
       </c>
       <c r="D43">
-        <v>0.02173131589899903</v>
+        <v>0.002455148933520505</v>
       </c>
       <c r="E43">
-        <v>0.03454565381603508</v>
+        <v>0.0120107202066836</v>
       </c>
       <c r="F43">
-        <v>0.01436166847409345</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>-0.02809124375486721</v>
+      </c>
+      <c r="G43">
+        <v>0.03470062331551445</v>
+      </c>
+      <c r="H43">
+        <v>-0.01950097855515772</v>
+      </c>
+      <c r="I43">
+        <v>-0.01993996247705563</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B44">
-        <v>0.04099850683678542</v>
+        <v>-0.02860741613909968</v>
       </c>
       <c r="C44">
-        <v>0.04710594065956041</v>
+        <v>0.03925699309860465</v>
       </c>
       <c r="D44">
-        <v>0.01267017730486939</v>
+        <v>-0.002830693864106074</v>
       </c>
       <c r="E44">
-        <v>0.104816761197985</v>
+        <v>0.01373521709483856</v>
       </c>
       <c r="F44">
-        <v>0.08868804751928408</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>-0.1202997557776549</v>
+      </c>
+      <c r="G44">
+        <v>0.09892879314306434</v>
+      </c>
+      <c r="H44">
+        <v>-0.04642371148203378</v>
+      </c>
+      <c r="I44">
+        <v>-0.05346296388973963</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,70 +2002,106 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B46">
-        <v>0.02839673968625477</v>
+        <v>-0.02532709533651455</v>
       </c>
       <c r="C46">
-        <v>0.03241027685410672</v>
+        <v>0.03459859509732518</v>
       </c>
       <c r="D46">
-        <v>0.0313466335191941</v>
+        <v>0.002090560865190616</v>
       </c>
       <c r="E46">
-        <v>0.04089579455994018</v>
+        <v>0.03208748683791145</v>
       </c>
       <c r="F46">
-        <v>0.009294264818489393</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>-0.04695667860808013</v>
+      </c>
+      <c r="G46">
+        <v>0.06476352715368172</v>
+      </c>
+      <c r="H46">
+        <v>-0.01173312014037299</v>
+      </c>
+      <c r="I46">
+        <v>-0.006184388032362051</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B47">
-        <v>0.09265495948431299</v>
+        <v>-0.0872196201157673</v>
       </c>
       <c r="C47">
-        <v>0.01539238022405113</v>
+        <v>0.0191444826683493</v>
       </c>
       <c r="D47">
-        <v>0.0206926791301153</v>
+        <v>0.004421094755077354</v>
       </c>
       <c r="E47">
-        <v>0.004217511747280173</v>
+        <v>0.02843848266106985</v>
       </c>
       <c r="F47">
-        <v>-0.02933461337131073</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>0.011287584133471</v>
+      </c>
+      <c r="G47">
+        <v>0.06160918459957324</v>
+      </c>
+      <c r="H47">
+        <v>-0.02788624623758797</v>
+      </c>
+      <c r="I47">
+        <v>-0.03131117141627503</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B48">
-        <v>0.01905989580980035</v>
+        <v>-0.02039402370730138</v>
       </c>
       <c r="C48">
-        <v>0.02809262807202886</v>
+        <v>0.01907928377976454</v>
       </c>
       <c r="D48">
-        <v>0.01684245047503714</v>
+        <v>-0.001674505122764538</v>
       </c>
       <c r="E48">
-        <v>0.03093627075130095</v>
+        <v>0.0151006138322184</v>
       </c>
       <c r="F48">
-        <v>0.01352952235838986</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>-0.02724958265054884</v>
+      </c>
+      <c r="G48">
+        <v>0.02752819728964442</v>
+      </c>
+      <c r="H48">
+        <v>-0.01427891813401981</v>
+      </c>
+      <c r="I48">
+        <v>-0.01176754179652806</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1677,50 +2118,77 @@
       <c r="F49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B50">
-        <v>0.09126577044916109</v>
+        <v>-0.08761745660857934</v>
       </c>
       <c r="C50">
-        <v>0.04058599436711145</v>
+        <v>0.0405711092455419</v>
       </c>
       <c r="D50">
-        <v>0.02192044415465685</v>
+        <v>-0.01180158383212592</v>
       </c>
       <c r="E50">
-        <v>0.01838127306214158</v>
+        <v>0.02759148088028879</v>
       </c>
       <c r="F50">
-        <v>-0.03636281529294693</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>0.006228700548172889</v>
+      </c>
+      <c r="G50">
+        <v>0.04462903237111161</v>
+      </c>
+      <c r="H50">
+        <v>0.01036556314261963</v>
+      </c>
+      <c r="I50">
+        <v>0.003248065526797187</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B51">
-        <v>0.05242204587556241</v>
+        <v>-0.03878513507117661</v>
       </c>
       <c r="C51">
-        <v>-0.008099847879807982</v>
+        <v>-0.004509854284303799</v>
       </c>
       <c r="D51">
-        <v>0.005283342619438431</v>
+        <v>0.01151721182519763</v>
       </c>
       <c r="E51">
-        <v>0.09669377356470643</v>
+        <v>0.01065930935360933</v>
       </c>
       <c r="F51">
-        <v>0.03113080908328036</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>-0.09646180330670943</v>
+      </c>
+      <c r="G51">
+        <v>0.06929080696504367</v>
+      </c>
+      <c r="H51">
+        <v>-0.04905686906108081</v>
+      </c>
+      <c r="I51">
+        <v>-0.02614385897587175</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,190 +2205,280 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B53">
-        <v>0.1407754831190907</v>
+        <v>-0.1246370177316284</v>
       </c>
       <c r="C53">
-        <v>0.0275208879196743</v>
+        <v>0.03885030570623031</v>
       </c>
       <c r="D53">
-        <v>0.04860849775486812</v>
+        <v>0.004664979132654493</v>
       </c>
       <c r="E53">
-        <v>-0.01687931742595974</v>
+        <v>0.05826542732529522</v>
       </c>
       <c r="F53">
-        <v>-0.05436859247201634</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>0.04653506587585107</v>
+      </c>
+      <c r="G53">
+        <v>0.007499848874108673</v>
+      </c>
+      <c r="H53">
+        <v>-0.02857586609009189</v>
+      </c>
+      <c r="I53">
+        <v>-0.04120513228839969</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B54">
-        <v>0.0255382086078554</v>
+        <v>-0.0246884668718324</v>
       </c>
       <c r="C54">
-        <v>0.0112865300011773</v>
+        <v>0.004146163558208328</v>
       </c>
       <c r="D54">
-        <v>0.03047151780417837</v>
+        <v>-0.00569499435303391</v>
       </c>
       <c r="E54">
-        <v>0.03751578062271313</v>
+        <v>0.02685413905964558</v>
       </c>
       <c r="F54">
-        <v>0.01774217048817205</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>-0.03480997967719503</v>
+      </c>
+      <c r="G54">
+        <v>0.05923311051987076</v>
+      </c>
+      <c r="H54">
+        <v>-0.03560396055878359</v>
+      </c>
+      <c r="I54">
+        <v>-0.02466981435540973</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B55">
-        <v>0.1037606914648597</v>
+        <v>-0.09830985938434481</v>
       </c>
       <c r="C55">
-        <v>0.006368639168236018</v>
+        <v>0.0335266079603312</v>
       </c>
       <c r="D55">
-        <v>0.04087599635777582</v>
+        <v>-0.01257147217783612</v>
       </c>
       <c r="E55">
-        <v>-0.03730073068443581</v>
+        <v>0.03783999671921986</v>
       </c>
       <c r="F55">
-        <v>0.004151632185277016</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>0.03218274957327758</v>
+      </c>
+      <c r="G55">
+        <v>0.01617975227808906</v>
+      </c>
+      <c r="H55">
+        <v>0.009144180276615253</v>
+      </c>
+      <c r="I55">
+        <v>-0.01414108581118088</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B56">
-        <v>0.1770153192425417</v>
+        <v>-0.1641726483086701</v>
       </c>
       <c r="C56">
-        <v>-0.01000937321503749</v>
+        <v>0.02047648839087894</v>
       </c>
       <c r="D56">
-        <v>0.08830064234974472</v>
+        <v>-0.0006811267631588753</v>
       </c>
       <c r="E56">
-        <v>-0.08504970249285661</v>
+        <v>0.08854174801235348</v>
       </c>
       <c r="F56">
-        <v>-0.07172383049145553</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>0.09214027712691154</v>
+      </c>
+      <c r="G56">
+        <v>-0.04333539086603436</v>
+      </c>
+      <c r="H56">
+        <v>0.007721207797346869</v>
+      </c>
+      <c r="I56">
+        <v>-0.03937271262951919</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B57">
-        <v>0.08300618477066826</v>
+        <v>-0.06536849404645041</v>
       </c>
       <c r="C57">
-        <v>0.03170378884175056</v>
+        <v>0.03239872050121119</v>
       </c>
       <c r="D57">
-        <v>0.01590702738232233</v>
+        <v>0.0177925673183102</v>
       </c>
       <c r="E57">
-        <v>0.0583500376449556</v>
+        <v>0.007715992023609517</v>
       </c>
       <c r="F57">
-        <v>0.01426617700680372</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>-0.06540187102512095</v>
+      </c>
+      <c r="G57">
+        <v>0.03310965410063945</v>
+      </c>
+      <c r="H57">
+        <v>-0.01385637909806755</v>
+      </c>
+      <c r="I57">
+        <v>-0.004769098242220099</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B58">
-        <v>0.2025106714188243</v>
+        <v>-0.2082448175260979</v>
       </c>
       <c r="C58">
-        <v>0.03067292106454279</v>
+        <v>0.1033015527282482</v>
       </c>
       <c r="D58">
-        <v>0.002510350397225693</v>
+        <v>0.09012631685017586</v>
       </c>
       <c r="E58">
-        <v>0.1006072346894086</v>
+        <v>-0.01500510640413225</v>
       </c>
       <c r="F58">
-        <v>0.09829492519739252</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>-0.2642071346014236</v>
+      </c>
+      <c r="G58">
+        <v>0.3468256650204159</v>
+      </c>
+      <c r="H58">
+        <v>0.3316730642982066</v>
+      </c>
+      <c r="I58">
+        <v>0.326015737176804</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B59">
-        <v>0.02189937486797433</v>
+        <v>-0.05289294276208699</v>
       </c>
       <c r="C59">
-        <v>-0.1952374031949932</v>
+        <v>-0.1994952134433779</v>
       </c>
       <c r="D59">
-        <v>0.006348254212650539</v>
+        <v>0.02188948822128075</v>
       </c>
       <c r="E59">
-        <v>0.04331554136486173</v>
+        <v>-0.01881161508316076</v>
       </c>
       <c r="F59">
-        <v>0.03481163884004371</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>-0.06758755130614298</v>
+      </c>
+      <c r="G59">
+        <v>-0.01945034461976045</v>
+      </c>
+      <c r="H59">
+        <v>-0.01456009838199054</v>
+      </c>
+      <c r="I59">
+        <v>-0.05378353974374498</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B60">
-        <v>0.1885256844173748</v>
+        <v>-0.1914788788767444</v>
       </c>
       <c r="C60">
-        <v>-0.08899889761530114</v>
+        <v>-0.04830545938292386</v>
       </c>
       <c r="D60">
-        <v>0.01490020158754863</v>
+        <v>0.05223802390043077</v>
       </c>
       <c r="E60">
-        <v>0.1231046004999989</v>
+        <v>0.01201283710597342</v>
       </c>
       <c r="F60">
-        <v>0.1223520766665788</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>-0.1982724904816658</v>
+      </c>
+      <c r="G60">
+        <v>-0.2812661059103145</v>
+      </c>
+      <c r="H60">
+        <v>-0.02469334849948117</v>
+      </c>
+      <c r="I60">
+        <v>0.09680585103898347</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B61">
-        <v>0.04184228257397517</v>
+        <v>-0.03784022749963255</v>
       </c>
       <c r="C61">
-        <v>0.01309985601735338</v>
+        <v>0.02910365283430166</v>
       </c>
       <c r="D61">
-        <v>0.002220561489200124</v>
+        <v>-0.0008653728547339995</v>
       </c>
       <c r="E61">
-        <v>0.02584983352602955</v>
+        <v>0.008391710433253277</v>
       </c>
       <c r="F61">
-        <v>0.0302577883601342</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>-0.03964859967574882</v>
+      </c>
+      <c r="G61">
+        <v>-0.0001928669742896082</v>
+      </c>
+      <c r="H61">
+        <v>-0.01896979683168244</v>
+      </c>
+      <c r="I61">
+        <v>0.0387293516290094</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1937,150 +2495,222 @@
       <c r="F62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B63">
-        <v>0.04375796058027093</v>
+        <v>-0.03146157393519541</v>
       </c>
       <c r="C63">
-        <v>0.01775349160597808</v>
+        <v>0.02294684789458369</v>
       </c>
       <c r="D63">
-        <v>0.01442509377645414</v>
+        <v>0.00125335944649431</v>
       </c>
       <c r="E63">
-        <v>0.04158736155593133</v>
+        <v>0.01552016409315228</v>
       </c>
       <c r="F63">
-        <v>0.01974967818975918</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>-0.0291676798794082</v>
+      </c>
+      <c r="G63">
+        <v>0.05165564926511968</v>
+      </c>
+      <c r="H63">
+        <v>0.0003662772952136503</v>
+      </c>
+      <c r="I63">
+        <v>-0.03572348034114637</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B64">
-        <v>0.07638104791129081</v>
+        <v>-0.06069700060585776</v>
       </c>
       <c r="C64">
-        <v>0.05385349707260888</v>
+        <v>0.04298872350770169</v>
       </c>
       <c r="D64">
-        <v>0.0564866577557048</v>
+        <v>-0.01539016202326417</v>
       </c>
       <c r="E64">
-        <v>-0.005131917853749152</v>
+        <v>0.04554052437151646</v>
       </c>
       <c r="F64">
-        <v>0.04847327036393619</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>-0.04449084208357144</v>
+      </c>
+      <c r="G64">
+        <v>0.01431498066087631</v>
+      </c>
+      <c r="H64">
+        <v>-0.06746104917843367</v>
+      </c>
+      <c r="I64">
+        <v>-0.0301119591094262</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>-0.02251126543173742</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>0.01110301288193099</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>-0.005761137993664233</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>0.005348058861159661</v>
       </c>
       <c r="F65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>-0.003535282049969788</v>
+      </c>
+      <c r="G65">
+        <v>-0.01032914631319986</v>
+      </c>
+      <c r="H65">
+        <v>0.01681649835702077</v>
+      </c>
+      <c r="I65">
+        <v>0.01678564355729127</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B66">
-        <v>0.0823601481072819</v>
+        <v>-0.06699270866774114</v>
       </c>
       <c r="C66">
-        <v>0.03793944885233571</v>
+        <v>0.05536919822053255</v>
       </c>
       <c r="D66">
-        <v>0.03433773012837973</v>
+        <v>0.01218540742814194</v>
       </c>
       <c r="E66">
-        <v>0.05586744828287311</v>
+        <v>0.04808513405395881</v>
       </c>
       <c r="F66">
-        <v>0.06196433261115923</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>-0.06792088999463554</v>
+      </c>
+      <c r="G66">
+        <v>0.002852502242106639</v>
+      </c>
+      <c r="H66">
+        <v>-0.01173028882033063</v>
+      </c>
+      <c r="I66">
+        <v>0.01989792464483153</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B67">
-        <v>0.05635928951739679</v>
+        <v>-0.04774183264125581</v>
       </c>
       <c r="C67">
-        <v>-0.003760158297160333</v>
+        <v>-0.002508132405433612</v>
       </c>
       <c r="D67">
-        <v>0.01321283837334567</v>
+        <v>0.002184924220125484</v>
       </c>
       <c r="E67">
-        <v>0.01259440979672576</v>
+        <v>0.009396691082915958</v>
       </c>
       <c r="F67">
-        <v>0.01465535679661239</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>-0.03708189597580025</v>
+      </c>
+      <c r="G67">
+        <v>0.01065353980643041</v>
+      </c>
+      <c r="H67">
+        <v>-0.04461237436429932</v>
+      </c>
+      <c r="I67">
+        <v>0.0376475889569829</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B68">
-        <v>0.03614439126222153</v>
+        <v>-0.06380226484022825</v>
       </c>
       <c r="C68">
-        <v>-0.2442019702882824</v>
+        <v>-0.2325205453664042</v>
       </c>
       <c r="D68">
-        <v>-0.007781046614684546</v>
+        <v>0.0236473364952208</v>
       </c>
       <c r="E68">
-        <v>0.04119693640695067</v>
+        <v>-0.03579504594219311</v>
       </c>
       <c r="F68">
-        <v>0.01901824273452642</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>-0.05227723866912161</v>
+      </c>
+      <c r="G68">
+        <v>-0.02581853604090449</v>
+      </c>
+      <c r="H68">
+        <v>0.005177971611324555</v>
+      </c>
+      <c r="I68">
+        <v>-0.1268140647386944</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B69">
-        <v>0.07256742657615096</v>
+        <v>-0.07279229846118927</v>
       </c>
       <c r="C69">
-        <v>0.01515008401899671</v>
+        <v>0.01951407627746046</v>
       </c>
       <c r="D69">
-        <v>0.02388175351070825</v>
+        <v>0.005567767210646901</v>
       </c>
       <c r="E69">
-        <v>0.008051423882862549</v>
+        <v>0.03167100720513733</v>
       </c>
       <c r="F69">
-        <v>-0.02454269747762883</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>0.001321161235727448</v>
+      </c>
+      <c r="G69">
+        <v>0.03692474787273498</v>
+      </c>
+      <c r="H69">
+        <v>-0.02083601685540363</v>
+      </c>
+      <c r="I69">
+        <v>-0.004126909388707789</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2097,170 +2727,251 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B71">
-        <v>0.02889155428609753</v>
+        <v>-0.05930950577201408</v>
       </c>
       <c r="C71">
-        <v>-0.2822640406372217</v>
+        <v>-0.250164374025723</v>
       </c>
       <c r="D71">
-        <v>-0.02034417239543177</v>
+        <v>0.0274672777874015</v>
       </c>
       <c r="E71">
-        <v>0.09637192017699954</v>
+        <v>-0.06258575632898977</v>
       </c>
       <c r="F71">
-        <v>0.02168360819216188</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>-0.07108220343403762</v>
+      </c>
+      <c r="G71">
+        <v>-0.01732041400657269</v>
+      </c>
+      <c r="H71">
+        <v>-0.02159758297763276</v>
+      </c>
+      <c r="I71">
+        <v>-0.1104243246149801</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B72">
-        <v>0.1288547904981492</v>
+        <v>-0.1236281628268079</v>
       </c>
       <c r="C72">
-        <v>-0.01467018071445329</v>
+        <v>0.03133947126770197</v>
       </c>
       <c r="D72">
-        <v>0.04500256134942796</v>
+        <v>0.005589803330875642</v>
       </c>
       <c r="E72">
-        <v>0.0400985361665838</v>
+        <v>0.06526864262336136</v>
       </c>
       <c r="F72">
-        <v>0.06921156580541926</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>-0.0828002015393806</v>
+      </c>
+      <c r="G72">
+        <v>-0.005518181826870353</v>
+      </c>
+      <c r="H72">
+        <v>0.03233370009279848</v>
+      </c>
+      <c r="I72">
+        <v>0.1069610530951227</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B73">
-        <v>0.2896384356969925</v>
+        <v>-0.2731423878489995</v>
       </c>
       <c r="C73">
-        <v>-0.1835727588354734</v>
+        <v>-0.0717884056924008</v>
       </c>
       <c r="D73">
-        <v>-0.04252009740407457</v>
+        <v>0.09315224490811841</v>
       </c>
       <c r="E73">
-        <v>0.1988237449502787</v>
+        <v>-0.03716674298530132</v>
       </c>
       <c r="F73">
-        <v>0.2513033620018917</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>-0.3060727577800863</v>
+      </c>
+      <c r="G73">
+        <v>-0.4924037224545355</v>
+      </c>
+      <c r="H73">
+        <v>0.01620309490741723</v>
+      </c>
+      <c r="I73">
+        <v>0.2973149125026393</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B74">
-        <v>0.1581040905253195</v>
+        <v>-0.1505926763535611</v>
       </c>
       <c r="C74">
-        <v>0.01996476600853047</v>
+        <v>0.03502460384914219</v>
       </c>
       <c r="D74">
-        <v>0.04048426454797321</v>
+        <v>0.01114244536297673</v>
       </c>
       <c r="E74">
-        <v>-0.01483275609500513</v>
+        <v>0.05260019262675911</v>
       </c>
       <c r="F74">
-        <v>-0.04724688949823382</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>0.0655817163426821</v>
+      </c>
+      <c r="G74">
+        <v>-0.02520038795303879</v>
+      </c>
+      <c r="H74">
+        <v>0.007700589744407156</v>
+      </c>
+      <c r="I74">
+        <v>-0.02498823403328137</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B75">
-        <v>0.2396420526599322</v>
+        <v>-0.2430225202718514</v>
       </c>
       <c r="C75">
-        <v>0.01266351228067653</v>
+        <v>0.02758707271029252</v>
       </c>
       <c r="D75">
-        <v>0.0801570125524354</v>
+        <v>0.02634083746862664</v>
       </c>
       <c r="E75">
-        <v>-0.05862199550629013</v>
+        <v>0.1171362341861446</v>
       </c>
       <c r="F75">
-        <v>-0.1352277782109305</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>0.1504480269495677</v>
+      </c>
+      <c r="G75">
+        <v>-0.02135439229777549</v>
+      </c>
+      <c r="H75">
+        <v>-0.01106759868644055</v>
+      </c>
+      <c r="I75">
+        <v>-0.0857617166256637</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B76">
-        <v>0.2479671671114895</v>
+        <v>-0.2626573870655464</v>
       </c>
       <c r="C76">
-        <v>-0.0189450560293404</v>
+        <v>0.01556208814187127</v>
       </c>
       <c r="D76">
-        <v>0.110648074304709</v>
+        <v>-0.01322712670641781</v>
       </c>
       <c r="E76">
-        <v>-0.10407333598718</v>
+        <v>0.1405032208895919</v>
       </c>
       <c r="F76">
-        <v>-0.08880853008000739</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>0.1809101819209833</v>
+      </c>
+      <c r="G76">
+        <v>-0.04816752691194833</v>
+      </c>
+      <c r="H76">
+        <v>0.0499798837450959</v>
+      </c>
+      <c r="I76">
+        <v>-0.04166352208623893</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B77">
-        <v>0.1357062360045307</v>
+        <v>-0.1208636479313863</v>
       </c>
       <c r="C77">
-        <v>0.06016737317156979</v>
+        <v>0.07554788441059272</v>
       </c>
       <c r="D77">
-        <v>-0.03485569693989171</v>
+        <v>0.005788323038865862</v>
       </c>
       <c r="E77">
-        <v>0.07622105291990008</v>
+        <v>-0.03040839244643524</v>
       </c>
       <c r="F77">
-        <v>0.14899430170044</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>-0.1597803194403479</v>
+      </c>
+      <c r="G77">
+        <v>0.1737705385997292</v>
+      </c>
+      <c r="H77">
+        <v>0.05056614964208354</v>
+      </c>
+      <c r="I77">
+        <v>-0.2922544156459593</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B78">
-        <v>0.08689521455293162</v>
+        <v>-0.07380742543028782</v>
       </c>
       <c r="C78">
-        <v>0.04758395594882214</v>
+        <v>0.07532356793632294</v>
       </c>
       <c r="D78">
-        <v>-0.01067653788168589</v>
+        <v>-0.006446042786170851</v>
       </c>
       <c r="E78">
-        <v>0.03079249536580644</v>
+        <v>0.01408478294238636</v>
       </c>
       <c r="F78">
-        <v>0.04868890344534177</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>-0.07642029568022032</v>
+      </c>
+      <c r="G78">
+        <v>0.02628025745888186</v>
+      </c>
+      <c r="H78">
+        <v>-0.01649519372433983</v>
+      </c>
+      <c r="I78">
+        <v>-0.03368171717877617</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2277,50 +2988,77 @@
       <c r="F79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B80">
-        <v>0.05249215268412485</v>
+        <v>-0.1353169385021473</v>
       </c>
       <c r="C80">
-        <v>-0.03916421210523312</v>
+        <v>-0.0589085264982834</v>
       </c>
       <c r="D80">
-        <v>-0.06116352067465775</v>
+        <v>-0.9736148096534717</v>
       </c>
       <c r="E80">
-        <v>-0.7844190615104811</v>
+        <v>-0.06303773099295837</v>
       </c>
       <c r="F80">
-        <v>0.5336441343207116</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>-0.04986450624872509</v>
+      </c>
+      <c r="G80">
+        <v>-0.03623100347312257</v>
+      </c>
+      <c r="H80">
+        <v>-0.04245317559307718</v>
+      </c>
+      <c r="I80">
+        <v>0.054700217789211</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B81">
-        <v>0.1648195618546922</v>
+        <v>-0.179929039360452</v>
       </c>
       <c r="C81">
-        <v>0.009562849692452521</v>
+        <v>0.009492391669726341</v>
       </c>
       <c r="D81">
-        <v>0.05774742356986954</v>
+        <v>0.005536798781357388</v>
       </c>
       <c r="E81">
-        <v>-0.1005506475020915</v>
+        <v>0.08606683560609528</v>
       </c>
       <c r="F81">
-        <v>-0.1468901146580872</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>0.1581412997610613</v>
+      </c>
+      <c r="G81">
+        <v>-0.01534280308150624</v>
+      </c>
+      <c r="H81">
+        <v>0.0237001125924383</v>
+      </c>
+      <c r="I81">
+        <v>-0.04200982808754641</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2337,30 +3075,48 @@
       <c r="F82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:6">
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B83">
-        <v>0.09092027087761864</v>
+        <v>-0.0682261152473576</v>
       </c>
       <c r="C83">
-        <v>0.07184310483987164</v>
+        <v>0.05617892338749855</v>
       </c>
       <c r="D83">
-        <v>-0.07121714662653705</v>
+        <v>0.0125252669105449</v>
       </c>
       <c r="E83">
-        <v>0.05584518997291098</v>
+        <v>-0.03459840465705383</v>
       </c>
       <c r="F83">
-        <v>-0.0141353406604544</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>-0.04675002416799189</v>
+      </c>
+      <c r="G83">
+        <v>0.04829987566064434</v>
+      </c>
+      <c r="H83">
+        <v>-0.05506800681142789</v>
+      </c>
+      <c r="I83">
+        <v>-0.03830202808317532</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2377,230 +3133,338 @@
       <c r="F84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B85">
-        <v>0.2376301882492848</v>
+        <v>-0.2487055189718642</v>
       </c>
       <c r="C85">
-        <v>0.05523807207009965</v>
+        <v>0.05592413501367724</v>
       </c>
       <c r="D85">
-        <v>0.0660222501396705</v>
+        <v>0.003954350528457846</v>
       </c>
       <c r="E85">
-        <v>-0.1159829452437451</v>
+        <v>0.1126916198091928</v>
       </c>
       <c r="F85">
-        <v>-0.1139312924748604</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>0.1871607760349267</v>
+      </c>
+      <c r="G85">
+        <v>0.01126066494319274</v>
+      </c>
+      <c r="H85">
+        <v>0.02722442294632605</v>
+      </c>
+      <c r="I85">
+        <v>-0.07058427607999369</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B86">
-        <v>0.03943186984318317</v>
+        <v>-0.02704453273361504</v>
       </c>
       <c r="C86">
-        <v>0.04986807986583887</v>
+        <v>0.05042945452817887</v>
       </c>
       <c r="D86">
-        <v>0.003612950559626999</v>
+        <v>0.0005408306950582368</v>
       </c>
       <c r="E86">
-        <v>0.04185556652417</v>
+        <v>0.01791425440741486</v>
       </c>
       <c r="F86">
-        <v>0.05840938198581178</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>-0.08295709815916516</v>
+      </c>
+      <c r="G86">
+        <v>0.06659503487414588</v>
+      </c>
+      <c r="H86">
+        <v>-0.0003676886096339725</v>
+      </c>
+      <c r="I86">
+        <v>-0.02166821676950306</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B87">
-        <v>0.02770237912066193</v>
+        <v>-0.03348873077210254</v>
       </c>
       <c r="C87">
-        <v>-0.05245195591555685</v>
+        <v>-0.008516963420946476</v>
       </c>
       <c r="D87">
-        <v>-0.001099461029999395</v>
+        <v>0.002109752054080351</v>
       </c>
       <c r="E87">
-        <v>0.06111729992028033</v>
+        <v>-0.0001626656200349205</v>
       </c>
       <c r="F87">
-        <v>0.08316098292122368</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>-0.1061916285801177</v>
+      </c>
+      <c r="G87">
+        <v>0.001010061273708579</v>
+      </c>
+      <c r="H87">
+        <v>0.01278043489884112</v>
+      </c>
+      <c r="I87">
+        <v>0.005008108083426725</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B88">
-        <v>0.02800305613508055</v>
+        <v>-0.03136424512048548</v>
       </c>
       <c r="C88">
-        <v>0.03028692546306069</v>
+        <v>0.01080069022747595</v>
       </c>
       <c r="D88">
-        <v>4.744734183713559e-05</v>
+        <v>-0.008625198692905558</v>
       </c>
       <c r="E88">
-        <v>-0.006050722451104227</v>
+        <v>0.006741927180167665</v>
       </c>
       <c r="F88">
-        <v>-0.006763726932324765</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>0.01162955946059032</v>
+      </c>
+      <c r="G88">
+        <v>0.04033383982584077</v>
+      </c>
+      <c r="H88">
+        <v>-0.04214415560566697</v>
+      </c>
+      <c r="I88">
+        <v>0.01140095604914714</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B89">
-        <v>0.03428727804815052</v>
+        <v>-0.09408943463101886</v>
       </c>
       <c r="C89">
-        <v>-0.3897432147004997</v>
+        <v>-0.3869154685935742</v>
       </c>
       <c r="D89">
-        <v>-0.08141454993105306</v>
+        <v>0.05535535671435016</v>
       </c>
       <c r="E89">
-        <v>0.05118004165551285</v>
+        <v>-0.08245329753420545</v>
       </c>
       <c r="F89">
-        <v>-0.03924009577433497</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>-0.0300868799887061</v>
+      </c>
+      <c r="G89">
+        <v>0.0502150961062207</v>
+      </c>
+      <c r="H89">
+        <v>-0.02309912899210381</v>
+      </c>
+      <c r="I89">
+        <v>-0.2399377441987234</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B90">
-        <v>0.02496075380255519</v>
+        <v>-0.06013063993385188</v>
       </c>
       <c r="C90">
-        <v>-0.3011916907584456</v>
+        <v>-0.3176604235850562</v>
       </c>
       <c r="D90">
-        <v>-0.03720277523533679</v>
+        <v>0.02642389424947117</v>
       </c>
       <c r="E90">
-        <v>0.02460790227843083</v>
+        <v>-0.06609763651307185</v>
       </c>
       <c r="F90">
-        <v>0.04247117685277165</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>-0.03331831648282371</v>
+      </c>
+      <c r="G90">
+        <v>-0.000466938023168951</v>
+      </c>
+      <c r="H90">
+        <v>-0.006707490129518846</v>
+      </c>
+      <c r="I90">
+        <v>-0.1893577637238827</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B91">
-        <v>0.2785036883611893</v>
+        <v>-0.2875570670806447</v>
       </c>
       <c r="C91">
-        <v>0.05267709550195024</v>
+        <v>0.05344854423688644</v>
       </c>
       <c r="D91">
-        <v>0.08025735997141921</v>
+        <v>0.01139829708668554</v>
       </c>
       <c r="E91">
-        <v>-0.1880280383950646</v>
+        <v>0.1077553714779749</v>
       </c>
       <c r="F91">
-        <v>-0.208276375367394</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>0.275429989192056</v>
+      </c>
+      <c r="G91">
+        <v>-0.02051697132769857</v>
+      </c>
+      <c r="H91">
+        <v>0.04575155439237377</v>
+      </c>
+      <c r="I91">
+        <v>-0.08353632970234198</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B92">
-        <v>0.06817474729009627</v>
+        <v>-0.1330926155288263</v>
       </c>
       <c r="C92">
-        <v>-0.4059617752206524</v>
+        <v>-0.4065161518177194</v>
       </c>
       <c r="D92">
-        <v>-0.1430659251854982</v>
+        <v>0.01244632624681759</v>
       </c>
       <c r="E92">
-        <v>-0.09405991550847832</v>
+        <v>-0.1162237408869044</v>
       </c>
       <c r="F92">
-        <v>-0.06241459865978047</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>0.1120759186917789</v>
+      </c>
+      <c r="G92">
+        <v>0.4830297356108763</v>
+      </c>
+      <c r="H92">
+        <v>0.0246244434895656</v>
+      </c>
+      <c r="I92">
+        <v>0.5322285656014313</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B93">
-        <v>0.01826242283141574</v>
+        <v>-0.07875951546698277</v>
       </c>
       <c r="C93">
-        <v>-0.3717824650277549</v>
+        <v>-0.3850375090228231</v>
       </c>
       <c r="D93">
-        <v>-0.06610906063976531</v>
+        <v>0.04744733087513775</v>
       </c>
       <c r="E93">
-        <v>-0.003066708126817336</v>
+        <v>-0.1068467943260648</v>
       </c>
       <c r="F93">
-        <v>-0.0329798962289715</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>0.004933545525130523</v>
+      </c>
+      <c r="G93">
+        <v>-0.0119731492006339</v>
+      </c>
+      <c r="H93">
+        <v>-0.05006213596877203</v>
+      </c>
+      <c r="I93">
+        <v>-0.1196959712562476</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B94">
-        <v>0.290142099218181</v>
+        <v>-0.3099095484683329</v>
       </c>
       <c r="C94">
-        <v>-0.0762602936873762</v>
+        <v>-0.03057092683468985</v>
       </c>
       <c r="D94">
-        <v>0.03578415780004272</v>
+        <v>0.03985794599306185</v>
       </c>
       <c r="E94">
-        <v>-0.2342592791005843</v>
+        <v>0.1237710417284185</v>
       </c>
       <c r="F94">
-        <v>-0.2821677505119435</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>0.32340933367613</v>
+      </c>
+      <c r="G94">
+        <v>0.03628274058490345</v>
+      </c>
+      <c r="H94">
+        <v>0.217858147614088</v>
+      </c>
+      <c r="I94">
+        <v>-0.02739715606213005</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B95">
-        <v>0.1622680440825747</v>
+        <v>-0.1281371532126066</v>
       </c>
       <c r="C95">
-        <v>0.05675445367882046</v>
+        <v>0.05632104919170708</v>
       </c>
       <c r="D95">
-        <v>0.002700260330106684</v>
+        <v>0.08423187423311632</v>
       </c>
       <c r="E95">
-        <v>-0.02066726916392728</v>
+        <v>0.0348819796546341</v>
       </c>
       <c r="F95">
-        <v>-0.3793877655481942</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>0.09323333770796291</v>
+      </c>
+      <c r="G95">
+        <v>0.1157421402459977</v>
+      </c>
+      <c r="H95">
+        <v>-0.885506668516195</v>
+      </c>
+      <c r="I95">
+        <v>0.1659984376853252</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,10 +3481,19 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2637,30 +3510,48 @@
       <c r="F97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B98">
-        <v>0.2170259208318855</v>
+        <v>-0.2085953926054014</v>
       </c>
       <c r="C98">
-        <v>-0.09792640938628112</v>
+        <v>-0.05619502455935447</v>
       </c>
       <c r="D98">
-        <v>-0.02946704884658875</v>
+        <v>0.06507724402197258</v>
       </c>
       <c r="E98">
-        <v>0.08709603609376947</v>
+        <v>-0.02841292372337831</v>
       </c>
       <c r="F98">
-        <v>0.03978723694996365</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>-0.1636990630321487</v>
+      </c>
+      <c r="G98">
+        <v>-0.3300132872977446</v>
+      </c>
+      <c r="H98">
+        <v>-0.02306388683719919</v>
+      </c>
+      <c r="I98">
+        <v>0.1724454321267805</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2677,10 +3568,19 @@
       <c r="F99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,70 +3597,106 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B101">
-        <v>0.02516023196682641</v>
+        <v>-0.01760220927123737</v>
       </c>
       <c r="C101">
-        <v>0.02616009188123425</v>
+        <v>0.02815836337371683</v>
       </c>
       <c r="D101">
-        <v>0.03279686643622463</v>
+        <v>-0.005698413740548744</v>
       </c>
       <c r="E101">
-        <v>0.02845182581211673</v>
+        <v>0.03645017820932648</v>
       </c>
       <c r="F101">
-        <v>0.02237016257277899</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>-0.06574468029578068</v>
+      </c>
+      <c r="G101">
+        <v>0.120144677380267</v>
+      </c>
+      <c r="H101">
+        <v>0.02288065912600001</v>
+      </c>
+      <c r="I101">
+        <v>0.07222938706691047</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B102">
-        <v>0.1095613725987444</v>
+        <v>-0.1169174931334832</v>
       </c>
       <c r="C102">
-        <v>0.03469989340776697</v>
+        <v>0.0305942329899333</v>
       </c>
       <c r="D102">
-        <v>0.04096925744604014</v>
+        <v>-0.007194744456847964</v>
       </c>
       <c r="E102">
-        <v>-0.07976365136564008</v>
+        <v>0.0567268782034813</v>
       </c>
       <c r="F102">
-        <v>-0.06145042983642966</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>0.1115145867947566</v>
+      </c>
+      <c r="G102">
+        <v>-0.004746062341511975</v>
+      </c>
+      <c r="H102">
+        <v>0.003338098563968284</v>
+      </c>
+      <c r="I102">
+        <v>-0.06683893644143404</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B103">
-        <v>0.01928196077101642</v>
+        <v>-0.02933760123744821</v>
       </c>
       <c r="C103">
-        <v>0.01294301006730955</v>
+        <v>0.00803881444902</v>
       </c>
       <c r="D103">
-        <v>0.01046747411773064</v>
+        <v>-0.008934480348449556</v>
       </c>
       <c r="E103">
-        <v>-0.006492390163741001</v>
+        <v>0.02037665670071883</v>
       </c>
       <c r="F103">
-        <v>-0.03776218235610453</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>0.02681642432570718</v>
+      </c>
+      <c r="G103">
+        <v>0.01434429746782685</v>
+      </c>
+      <c r="H103">
+        <v>-0.009814788115816438</v>
+      </c>
+      <c r="I103">
+        <v>-0.02235516599150916</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2775,6 +3711,15 @@
         <v>0</v>
       </c>
       <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
         <v>0</v>
       </c>
     </row>
